--- a/data/trans_orig/P1433-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Habitat-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5535</v>
+        <v>5677</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001554879075952536</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007868378025968875</v>
+        <v>0.008070648178378924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7639</v>
+        <v>6648</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003162599141271775</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01095903297067997</v>
+        <v>0.009537181237208606</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>3298</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8798</v>
+        <v>8878</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002355054787903585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007450599209724563</v>
+        <v>0.0007496380863838994</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006282228280516203</v>
+        <v>0.006339034523872078</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>702375</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>697934</v>
+        <v>697792</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>703469</v>
@@ -822,7 +822,7 @@
         <v>0.9984451209240475</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9921316219740312</v>
+        <v>0.9919293518216187</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>694846</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>689411</v>
+        <v>690402</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>697050</v>
@@ -843,7 +843,7 @@
         <v>0.9968374008587282</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9890409670293199</v>
+        <v>0.9904628187627913</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -855,19 +855,19 @@
         <v>1397221</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1391721</v>
+        <v>1391641</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1399476</v>
+        <v>1399469</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9976449452120965</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9937177717194838</v>
+        <v>0.9936609654761279</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9992549400790275</v>
+        <v>0.999250361913616</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7514</v>
+        <v>6917</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002084337368105889</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007302480467446837</v>
+        <v>0.006722122180204994</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6642</v>
+        <v>7539</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001047782576052664</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.003244710345119374</v>
+        <v>0.003683022412091141</v>
       </c>
     </row>
     <row r="8">
@@ -1035,7 +1035,7 @@
         <v>1026828</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1021459</v>
+        <v>1022056</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>1028973</v>
@@ -1044,7 +1044,7 @@
         <v>0.9979156626318941</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9926975195325533</v>
+        <v>0.9932778778197966</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>2044776</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2040279</v>
+        <v>2039382</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>2046921</v>
@@ -1065,7 +1065,7 @@
         <v>0.9989522174239474</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9967552896548815</v>
+        <v>0.9963169775879089</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4740</v>
+        <v>4786</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001249852304359911</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006256530162857814</v>
+        <v>0.00631670046062581</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1181,19 +1181,19 @@
         <v>3101</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8554</v>
+        <v>8367</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003996003528600853</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001233294697611523</v>
+        <v>0.001232184560626968</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01102244517965708</v>
+        <v>0.0107816535451592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1202,19 +1202,19 @@
         <v>4048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1096</v>
+        <v>1041</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11030</v>
+        <v>9250</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002639438694709512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007144368485233055</v>
+        <v>0.0006784536819866749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0071917433805807</v>
+        <v>0.006031386538806082</v>
       </c>
     </row>
     <row r="11">
@@ -1231,7 +1231,7 @@
         <v>756676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>752883</v>
+        <v>752837</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>757623</v>
@@ -1240,7 +1240,7 @@
         <v>0.9987501476956401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9937434698371422</v>
+        <v>0.9936832995393742</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1252,19 +1252,19 @@
         <v>772964</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>767511</v>
+        <v>767698</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>775108</v>
+        <v>775109</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9960039964713991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9889775548203431</v>
+        <v>0.9892183464548409</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9987667053023885</v>
+        <v>0.998767815439373</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1389</v>
@@ -1273,19 +1273,19 @@
         <v>1529641</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1522659</v>
+        <v>1524439</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1532593</v>
+        <v>1532648</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9973605613052905</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9928082566194193</v>
+        <v>0.9939686134611939</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9992855631514767</v>
+        <v>0.9993215463180134</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>2728</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7520</v>
+        <v>7394</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002878240832320231</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0009322170348258387</v>
+        <v>0.000937200322999456</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007934864932686921</v>
+        <v>0.007801230892729865</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1398,19 +1398,19 @@
         <v>2856</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7618</v>
+        <v>8544</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002717327931767687</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0008488512781665816</v>
+        <v>0.0008568362312338324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007248407772398395</v>
+        <v>0.008129412390532272</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1419,19 +1419,19 @@
         <v>5584</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1901</v>
+        <v>1928</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11206</v>
+        <v>12081</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00279363014921355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0009509361713554294</v>
+        <v>0.0009646971766708066</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005606501621448322</v>
+        <v>0.006044418572697565</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>945011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>940219</v>
+        <v>940345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>946856</v>
+        <v>946851</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9971217591676798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9920651350673125</v>
+        <v>0.9921987691072701</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9990677829651741</v>
+        <v>0.9990627996770006</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>999</v>
@@ -1469,19 +1469,19 @@
         <v>1048082</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1043320</v>
+        <v>1042394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1050046</v>
+        <v>1050038</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9972826720682323</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9927515922276016</v>
+        <v>0.991870587609467</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9991511487218334</v>
+        <v>0.9991431637687662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1906</v>
@@ -1490,19 +1490,19 @@
         <v>1993093</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1987471</v>
+        <v>1986596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1996776</v>
+        <v>1996749</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9972063698507865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9943934983785516</v>
+        <v>0.9939555814273024</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9990490638286446</v>
+        <v>0.9990353028233292</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>4769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1784</v>
+        <v>1830</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10412</v>
+        <v>10812</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001391554251153087</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0005205949712133051</v>
+        <v>0.0005341168774881757</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.003038450449965317</v>
+        <v>0.003155040617709252</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1615,19 +1615,19 @@
         <v>10306</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5215</v>
+        <v>5183</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18457</v>
+        <v>17893</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002900659454108825</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001467888257945031</v>
+        <v>0.001458877831587937</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005194804685068055</v>
+        <v>0.005035892604504448</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1636,19 +1636,19 @@
         <v>15075</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8907</v>
+        <v>9131</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24986</v>
+        <v>25996</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002159754869505297</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001276114822732967</v>
+        <v>0.001308233099389859</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.003579690352300463</v>
+        <v>0.003724432894865298</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>3422010</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3416367</v>
+        <v>3415967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3424995</v>
+        <v>3424949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9986084457488469</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9969615495500347</v>
+        <v>0.9968449593822908</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9994794050287867</v>
+        <v>0.9994658831225118</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3284</v>
@@ -1686,19 +1686,19 @@
         <v>3542720</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3534569</v>
+        <v>3535133</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3547811</v>
+        <v>3547843</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9970993405458912</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9948051953149319</v>
+        <v>0.9949641073954956</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9985321117420549</v>
+        <v>0.9985411221684121</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6488</v>
@@ -1707,19 +1707,19 @@
         <v>6964730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6954819</v>
+        <v>6953809</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6970898</v>
+        <v>6970674</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9978402451304947</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9964203096476996</v>
+        <v>0.9962755671051349</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.998723885177267</v>
+        <v>0.9986917669006102</v>
       </c>
     </row>
     <row r="18">
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6773</v>
+        <v>6291</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00194022545442459</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.006624834926289345</v>
+        <v>0.006153455374467996</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4306</v>
+        <v>6149</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0009780864523697324</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.004129225041422469</v>
+        <v>0.005896314869347455</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -2262,19 +2262,19 @@
         <v>3004</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8016</v>
+        <v>8178</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001454385188601613</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0004404233896288712</v>
+        <v>0.0004402780198282815</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.003881255287088523</v>
+        <v>0.003959773683181057</v>
       </c>
     </row>
     <row r="8">
@@ -2291,7 +2291,7 @@
         <v>1020447</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1015658</v>
+        <v>1016140</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1022431</v>
@@ -2300,7 +2300,7 @@
         <v>0.9980597745455754</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9933751650737105</v>
+        <v>0.993846544625532</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2312,7 +2312,7 @@
         <v>1041893</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1038607</v>
+        <v>1036764</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>1042913</v>
@@ -2321,7 +2321,7 @@
         <v>0.9990219135476303</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9958707749585783</v>
+        <v>0.9941036851306525</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2333,19 +2333,19 @@
         <v>2062340</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2057328</v>
+        <v>2057166</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2064434</v>
+        <v>2064435</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9985456148113984</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9961187447129114</v>
+        <v>0.996040226316819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9995595766103711</v>
+        <v>0.9995597219801717</v>
       </c>
     </row>
     <row r="9">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3915</v>
+        <v>4491</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00117211860036093</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.005154948302060858</v>
+        <v>0.005913346659598676</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4267</v>
+        <v>5701</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0005763994374521584</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.002762527390085202</v>
+        <v>0.003691080505431796</v>
       </c>
     </row>
     <row r="11">
@@ -2500,7 +2500,7 @@
         <v>758662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>755637</v>
+        <v>755061</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>759552</v>
@@ -2509,7 +2509,7 @@
         <v>0.9988278813996391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.99484505169794</v>
+        <v>0.9940866533404012</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2534,7 +2534,7 @@
         <v>1543673</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1540296</v>
+        <v>1538862</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1544563</v>
@@ -2543,7 +2543,7 @@
         <v>0.9994236005625479</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9972374726099146</v>
+        <v>0.9963089194945679</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6384</v>
+        <v>5107</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0009770382510832583</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006116529121250896</v>
+        <v>0.00489304357994318</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5110</v>
+        <v>5097</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0005147066766662315</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.002579086144048274</v>
+        <v>0.002572674784907621</v>
       </c>
     </row>
     <row r="14">
@@ -2714,7 +2714,7 @@
         <v>1042759</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1037395</v>
+        <v>1038672</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>1043779</v>
@@ -2723,7 +2723,7 @@
         <v>0.9990229617489167</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.993883470878748</v>
+        <v>0.995106956420057</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2735,7 +2735,7 @@
         <v>1980326</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1976236</v>
+        <v>1976249</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>1981346</v>
@@ -2744,7 +2744,7 @@
         <v>0.9994852933233338</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9974209138559518</v>
+        <v>0.9974273252150924</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -2839,19 +2839,19 @@
         <v>2874</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7862</v>
+        <v>7959</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0008467105045476443</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0</v>
+        <v>0.0002614126325114895</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.002316292141647879</v>
+        <v>0.002344656561538461</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6947</v>
+        <v>7142</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0005754963787181816</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.001959908057820836</v>
+        <v>0.002014825371844866</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -2881,19 +2881,19 @@
         <v>4914</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10176</v>
+        <v>10866</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0007081682398282754</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0002751256933122218</v>
+        <v>0.0002746808990325804</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.001466581083363248</v>
+        <v>0.001566026257973857</v>
       </c>
     </row>
     <row r="17">
@@ -2910,19 +2910,19 @@
         <v>3391476</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3386488</v>
+        <v>3386391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3394350</v>
+        <v>3393463</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9991532894954523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9976837078583521</v>
+        <v>0.9976553434384621</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1</v>
+        <v>0.9997385873674886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3336</v>
@@ -2931,7 +2931,7 @@
         <v>3542502</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3537595</v>
+        <v>3537400</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>3544542</v>
@@ -2940,7 +2940,7 @@
         <v>0.9994245036212818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9980400919421771</v>
+        <v>0.9979851746281551</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -2952,19 +2952,19 @@
         <v>6933978</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6928716</v>
+        <v>6928026</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6936983</v>
+        <v>6936986</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9992918317601718</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9985334189166369</v>
+        <v>0.9984339737420264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9997248743066878</v>
+        <v>0.9997253191009674</v>
       </c>
     </row>
     <row r="18">
